--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -14,20 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Testcase ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>WorkPhone</t>
   </si>
   <si>
-    <t>AddressLine1</t>
-  </si>
-  <si>
-    <t>JKLD Cross street 4</t>
-  </si>
-  <si>
     <t>7689076572</t>
   </si>
   <si>
@@ -55,9 +46,6 @@
     <t>VerifyOrderSubmission</t>
   </si>
   <si>
-    <t>7689076574</t>
-  </si>
-  <si>
     <t>VerifyCmLogout2</t>
   </si>
   <si>
@@ -71,6 +59,45 @@
   </si>
   <si>
     <t>JKLD Cross street 3</t>
+  </si>
+  <si>
+    <t>CustomerAddressLine1</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>7689076577</t>
+  </si>
+  <si>
+    <t>JKLD Cross street 7</t>
   </si>
 </sst>
 </file>
@@ -143,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,6 +192,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,101 +500,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
